--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171BD91C-8D0D-443D-8B57-15F4A24926ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418081D9-6DA2-4599-A792-D992BC76C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Complessità</t>
   </si>
@@ -90,6 +90,120 @@
   </si>
   <si>
     <t>Diagramma Attività</t>
+  </si>
+  <si>
+    <t>Diag1 - Acquisizione Temperatura</t>
+  </si>
+  <si>
+    <t>bassa</t>
+  </si>
+  <si>
+    <t>60/h</t>
+  </si>
+  <si>
+    <t>Diag2 - Invio Temperatura</t>
+  </si>
+  <si>
+    <t>1/h</t>
+  </si>
+  <si>
+    <t>Diag3 - Controllo Temperatura</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>6/h</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>180.000/h</t>
+  </si>
+  <si>
+    <t>30/h</t>
+  </si>
+  <si>
+    <t>1.800/h</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>Diag5 - Acquisizione Accelerazione</t>
+  </si>
+  <si>
+    <t>Diag6 - Invio Accelerazione</t>
+  </si>
+  <si>
+    <t>Diag7 - Controllo Accelerazione</t>
+  </si>
+  <si>
+    <t>Diag8 - Acquisizione Battiti</t>
+  </si>
+  <si>
+    <t>Diag9 - Invio Battiti</t>
+  </si>
+  <si>
+    <t>Diag10 - Controllo Battiti</t>
+  </si>
+  <si>
+    <t>36.000/h</t>
+  </si>
+  <si>
+    <t>12/h</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>Delay (secondi)</t>
+  </si>
+  <si>
+    <t>Frequenza (/h)</t>
+  </si>
+  <si>
+    <t>Diag11 - Acquisizione Pressione</t>
+  </si>
+  <si>
+    <t>240/h</t>
+  </si>
+  <si>
+    <t>Diag12 - Invio Pressione</t>
+  </si>
+  <si>
+    <t>2/h</t>
+  </si>
+  <si>
+    <t>Diag13 - Acquisizione Movimento</t>
+  </si>
+  <si>
+    <t>3600/h</t>
+  </si>
+  <si>
+    <t>Diag14 - Invio Movimento</t>
+  </si>
+  <si>
+    <t>Diag15 - Controllo Ambiente</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>Diag16 - Monitoraggio</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Diag17 - Controllo Storico</t>
+  </si>
+  <si>
+    <t>Diag18 - Soccorsi</t>
+  </si>
+  <si>
+    <t>Diag19 - Comunicazione</t>
   </si>
 </sst>
 </file>
@@ -129,12 +243,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,22 +308,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -276,31 +449,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,6 +550,7 @@
         <c:axId val="1426149327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1038,7 +1212,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1364,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB5A4A-0965-46E8-93F2-7560CFB05C39}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,193 +1549,369 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
-        <v>90</v>
+      <c r="D2" s="4">
+        <v>40</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
+        <v>50</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
         <v>80</v>
       </c>
+      <c r="S7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>97</v>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>34</v>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.savazzi\IdeaProjects\unimib-software-architecture-gitlab\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418081D9-6DA2-4599-A792-D992BC76C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7D34F2-9AEE-42BA-8128-BE36D0754E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -322,9 +311,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +339,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,16 +453,16 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,24 +1527,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB5A4A-0965-46E8-93F2-7560CFB05C39}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="4" width="17.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.453125" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1581,11 +1570,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1594,324 +1583,327 @@
       <c r="D2" s="4">
         <v>40</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4">
         <v>50</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>40</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>80</v>
-      </c>
-      <c r="S7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="S8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="S9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>40</v>
-      </c>
-      <c r="S10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S11" s="14" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S12" s="14" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S13" s="14" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S14" s="14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="14" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S16" s="6" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S17" s="6" t="s">
+    <row r="17" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="S17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S18" s="6" t="s">
+    <row r="18" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="S18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S19" s="6" t="s">
+    <row r="19" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="S19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <v>5</v>
       </c>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.savazzi\IdeaProjects\unimib-software-architecture-gitlab\Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7D34F2-9AEE-42BA-8128-BE36D0754E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C109072-2FBB-4DDE-9F58-24F85CC19F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
   <si>
     <t>Complessità</t>
   </si>
@@ -193,13 +193,61 @@
   </si>
   <si>
     <t>Diag19 - Comunicazione</t>
+  </si>
+  <si>
+    <t>Divisione Data Type Driven</t>
+  </si>
+  <si>
+    <t>Divisione Functionality Driven</t>
+  </si>
+  <si>
+    <t>Commento</t>
+  </si>
+  <si>
+    <t>Il valore di complessità stimato è relativamento basso visto che non si hanno singoli componenti troppo complessi.</t>
+  </si>
+  <si>
+    <t>Il valore di frequenza stimato è medio perché si hanno sia componenti con frequenza di attivazione alta (come per l'acquizione dell'accelerazione oppure dei battiti) che componenti con frequenza di attivazione bassa, come ad esempio tutti I componenti per l'invio dei dati.</t>
+  </si>
+  <si>
+    <t>Il valore di delay stimato è relativamente basso perchè la maggior parte dei componenti contiene attività con tempo di esecuzione molto basso, e sono poche le attività con tempo di esecuzione più alto, ad esempio il controllo dello storico.</t>
+  </si>
+  <si>
+    <t>Il valore di astrazione stimato è abbastanza basso perché i componenti definiti si mappano bene sugli elementi del dominio applicativo, infatti abbiamo un componente per la gestione di ogni aspetto considerato della vita del residente.</t>
+  </si>
+  <si>
+    <t>Il valore di astrazione stimato è abbastanza alto perché i componenti definiti non si mappano direttamente sugli aspetti considerati della vita dell'utente.</t>
+  </si>
+  <si>
+    <t>Il valore di location stimato è abbastanza basso perché si ipotizza la vicinanza fisica dei componenti di gestione dei dati  con il residente, mentre il componente di gestione dell'interazione con gli utenti lo si ipotizza più dislocato.</t>
+  </si>
+  <si>
+    <t>Il valore di location è medio perché si ipotizza la disposizione dei componenti per la gestione di tutti i dati non direttamente sul residente (cioè sullo smartwatch), ma su un qualche hub associato alla residenza, mentre, il componente di gestione dell'interazione, come per l'altra divisione, lo si ipotizza più dislocato.</t>
+  </si>
+  <si>
+    <t>Il valore di intra flow stimato è molto basso perché i diversi componenti non comunicano direttamente tra loro, ma si scambiano solo dati tramite i datastore.</t>
+  </si>
+  <si>
+    <t>Il valore di intra flow è abbastanza alto perché i componenti interagiscono tra loro non solo tramite i datastore, ma condividendo anche i buffer.</t>
+  </si>
+  <si>
+    <t>Il valore di extra flow è relativamente alto perchè ogni componente prevede l'interazione con un elemento del mondo esterno, che sia un sensore o un utente.</t>
+  </si>
+  <si>
+    <t>Il valore di sharing è molto alto perché i componenti utilizzano per l'interazione solo ed unicamente I dati presenti nei datastore.</t>
+  </si>
+  <si>
+    <t>Il valore di sharing è relativamente alto perché i componenti utilizzano per l'interazione i datastore, ma non solo, infatti vengono considerati anche I buffer, quindi il valore finale è minore rispetto a quello visto per l'altro tipo di divisione.</t>
+  </si>
+  <si>
+    <t>Il valore di control flow è molto basso perché I componenti presentano attivazioni o temporizzate, oppure su stimolo dell'utente esterno, quindi non si hanno componenti attivati da altri componenti.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +279,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -293,11 +357,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,8 +442,21 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,21 +498,30 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data-Type Driven</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$J$3:$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -433,27 +556,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$K$3:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60</c:v>
@@ -462,7 +585,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,6 +593,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B994-4811-A524-F57EC2FF2972}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Functionality Driven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00E3-4E44-BB64-554FDF4A4F75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -497,7 +686,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -600,6 +789,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -685,7 +905,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="351">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -696,7 +916,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -709,7 +929,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -726,7 +946,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -742,7 +962,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -786,35 +1006,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -826,30 +1046,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -889,23 +1110,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -952,14 +1172,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1010,8 +1224,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1049,20 +1263,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1075,6 +1289,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1106,7 +1331,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1115,14 +1340,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1143,20 +1367,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1177,14 +1400,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1193,16 +1410,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1527,390 +1744,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB5A4A-0965-46E8-93F2-7560CFB05C39}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.453125" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="111" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>80</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="B23" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="C23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="K25" s="4">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>50</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
         <v>40</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="L27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="C28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4">
+        <v>70</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>50</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4">
+        <v>60</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="4">
+        <v>60</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="4">
+        <v>60</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="4">
         <v>20</v>
       </c>
-      <c r="V2" s="8">
+      <c r="L33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>50</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>30</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="7" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>40</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
-        <v>40</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>60</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>80</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>30</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="S16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V16" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="S17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V17" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="S18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="S19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V19" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
+  <mergeCells count="10">
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C109072-2FBB-4DDE-9F58-24F85CC19F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBECBC-F513-4315-98E6-29CC0AA05F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +442,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,10 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,7 +1746,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1768,12 +1767,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1817,10 +1816,10 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1846,8 +1845,8 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1871,8 +1870,8 @@
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1896,8 +1895,8 @@
       <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +1920,8 @@
       <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1946,10 +1945,10 @@
       <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -1975,8 +1974,8 @@
       <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2000,8 +1999,8 @@
       <c r="D10" s="12">
         <v>0</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2025,8 +2024,8 @@
       <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2078,9 +2077,6 @@
       <c r="D14" s="14">
         <v>0</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -2095,9 +2091,6 @@
       <c r="D15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -2170,25 +2163,24 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -2203,7 +2195,6 @@
       <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="19"/>
       <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2233,10 +2224,10 @@
       <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2262,8 +2253,8 @@
       <c r="D26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="4" t="s">
         <v>1</v>
       </c>
@@ -2287,8 +2278,8 @@
       <c r="D27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4" t="s">
         <v>2</v>
       </c>
@@ -2312,8 +2303,8 @@
       <c r="D28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="4" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2328,8 @@
       <c r="D29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="4" t="s">
         <v>4</v>
       </c>
@@ -2362,10 +2353,10 @@
       <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -2391,8 +2382,8 @@
       <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="4" t="s">
         <v>6</v>
       </c>
@@ -2416,8 +2407,8 @@
       <c r="D32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2441,8 +2432,8 @@
       <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="4" t="s">
         <v>8</v>
       </c>

--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBECBC-F513-4315-98E6-29CC0AA05F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF47051-851D-4B0D-BA8A-85E11CEC3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Progetto/ArchLogica.xlsx
+++ b/Progetto/ArchLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\IdeaProjects\unimib-software-architecture\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF47051-851D-4B0D-BA8A-85E11CEC3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346C481-76B0-4388-B129-AF14A2D7BB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE6CBB44-84A0-4BED-899A-38EB3F068B99}"/>
   </bookViews>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
